--- a/PlexByte.App.MoCap.Docs/UseCase_Template.xlsx
+++ b/PlexByte.App.MoCap.Docs/UseCase_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Use Case Id:</t>
   </si>
@@ -32,15 +32,9 @@
     <t>Use Case Name:</t>
   </si>
   <si>
-    <t>Create</t>
-  </si>
-  <si>
     <t>Actors:</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
@@ -59,72 +53,31 @@
     <t>None</t>
   </si>
   <si>
-    <t>1. User is logged in
-2. User opened the task panel</t>
-  </si>
-  <si>
-    <t>The user creates a new tasl</t>
-  </si>
-  <si>
-    <t>1. User clicks "New Task" button
-2. User enters a title
-3. User enters a description of the task
-4. User estimates the duration
-5. User specifies the start date
-6. User specified the due date (if any)
-7. User associates task with project
-8. User specifies a budget (if any)
-9. User selects either "auto-assign", "manual-assign" or "poll-assign"
-10. User clicks "Save" button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9a. If the user selects "poll-assign"
-           10. =&gt; Goto Use Case </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Create" (poll)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7a. User specifies task to be a "To-Do" item
-          7. =&gt; Skipped
-7b. Project does not exist yet
-         7. =&gt; Goto Use Case </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Create" (project)</t>
-    </r>
+    <t>System</t>
+  </si>
+  <si>
+    <t>AssignTask</t>
+  </si>
+  <si>
+    <t>Occurs if a poll has completed and a task was attached to it</t>
+  </si>
+  <si>
+    <t>1. Poll completed
+2. Task attached to poll</t>
+  </si>
+  <si>
+    <t>1. System couts most user votes
+2. System assigns user to task
+3. System updates the task
+4. System updates the project
+5. Process ends</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,14 +93,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -571,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,55 +524,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="112.5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
